--- a/excel/testCaseLogin.xlsx
+++ b/excel/testCaseLogin.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOF304\SOF304-Ass2\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOF304\Ass2-SOF304\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FD17CF-3BED-4605-A1C1-F0651127813D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CF7527-5F81-4721-B32D-0CFBD98A6719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0DD4D44A-2FD2-416A-85DA-4E941AC6BE9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Register" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="91">
   <si>
     <t>Pass</t>
   </si>
@@ -118,13 +119,195 @@
   </si>
   <si>
     <t>Giao diện quay về trang chủ</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Test username</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Input Data</t>
+  </si>
+  <si>
+    <t>Username not be blank and must be greater than or equal to six characters. Try again!</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo Username not be blank and must be greater
+ than or equal to six characters. Try again!</t>
+  </si>
+  <si>
+    <t>bé hơn 6 kí tự</t>
+  </si>
+  <si>
+    <t>a12</t>
+  </si>
+  <si>
+    <t>trùng với database</t>
+  </si>
+  <si>
+    <t>This account has already existed!</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo This account has already existed!</t>
+  </si>
+  <si>
+    <t>Test fullname</t>
+  </si>
+  <si>
+    <t>Fullname not be blank. Try again!</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo Fullname not be blank. Try again!</t>
+  </si>
+  <si>
+    <t>Test birthday</t>
+  </si>
+  <si>
+    <t>Birthday not be blank and must correct format (yyyy-MM-dd). Try again!</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo Birthday not be blank and must correct 
+format (yyyy-MM-dd). Try again!</t>
+  </si>
+  <si>
+    <t>sai định dạng</t>
+  </si>
+  <si>
+    <t>sadsadsad</t>
+  </si>
+  <si>
+    <t>Test Email</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo Email not be blank and must correct format (@abc.com...). Try again!</t>
+  </si>
+  <si>
+    <t>aaaaaa@a</t>
+  </si>
+  <si>
+    <t>Test Phone Number</t>
+  </si>
+  <si>
+    <t>Phone numbers must not be empty, must start with zero and have ten characters. Try again!</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo Phone numbers must not be empty, must start with zero and have ten characters. Try again!</t>
+  </si>
+  <si>
+    <t>ít hơn 10 số</t>
+  </si>
+  <si>
+    <t>nhiều hơn 10 số</t>
+  </si>
+  <si>
+    <t>10 số nhưng không có số 0 đứng đầu</t>
+  </si>
+  <si>
+    <t>Test Password</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo Password must not be empty and have six characters. Try again!</t>
+  </si>
+  <si>
+    <t>ít hơn 6 kí tự</t>
+  </si>
+  <si>
+    <t>abca</t>
+  </si>
+  <si>
+    <t>Test confirm password</t>
+  </si>
+  <si>
+    <t>Email not be blank and must correct format (@abc.com...). Try again!</t>
+  </si>
+  <si>
+    <t>Password must not be empty and have six characters. Try again!</t>
+  </si>
+  <si>
+    <t>Confirm must not be empty and have six character.  Try again!</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo Confirm must not be empty and have six character.  Try again!</t>
+  </si>
+  <si>
+    <t>không trùng với password(anh123)</t>
+  </si>
+  <si>
+    <t>anh</t>
+  </si>
+  <si>
+    <t>aaabccss</t>
+  </si>
+  <si>
+    <t>Password incorrect, please try again!</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo Password incorrect, please try again!</t>
+  </si>
+  <si>
+    <t>TC01-C01.1</t>
+  </si>
+  <si>
+    <t>TC01-C01.2</t>
+  </si>
+  <si>
+    <t>TC01-C01.3</t>
+  </si>
+  <si>
+    <t>TC01-C01.4</t>
+  </si>
+  <si>
+    <t>TC01-C01.5</t>
+  </si>
+  <si>
+    <t>TC01-C01.6</t>
+  </si>
+  <si>
+    <t>TC01-C01.7</t>
+  </si>
+  <si>
+    <t>TC01-C01.8</t>
+  </si>
+  <si>
+    <t>TC01-C01.9</t>
+  </si>
+  <si>
+    <t>TC01-C01.10</t>
+  </si>
+  <si>
+    <t>TC01-C01.11</t>
+  </si>
+  <si>
+    <t>TC01-C01.12</t>
+  </si>
+  <si>
+    <t>TC01-C01.13</t>
+  </si>
+  <si>
+    <t>TC01-C01.14</t>
+  </si>
+  <si>
+    <t>TC01-C01.15</t>
+  </si>
+  <si>
+    <t>TC01-C01.16</t>
+  </si>
+  <si>
+    <t>TC01-C01.17</t>
+  </si>
+  <si>
+    <t>TC01-C01.18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +329,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -161,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -184,16 +375,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76371D4-42FE-41C1-90F0-4426818D7B59}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +742,7 @@
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="30.5546875" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" customWidth="1"/>
     <col min="6" max="6" width="36.5546875" customWidth="1"/>
     <col min="7" max="7" width="49.6640625" customWidth="1"/>
@@ -673,9 +898,444 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1C26A1-5C4A-428F-BDEF-C9D9D8E3F66D}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="47.5546875" customWidth="1"/>
+    <col min="6" max="6" width="51.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="6">
+        <v>33029</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4">
+        <v>23132</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="4">
+        <v>13246579812</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9852249060</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{4A4DA385-2F4F-4129-8B13-F4BFF7E3611F}"/>
+    <hyperlink ref="D16" r:id="rId2" display="aaaaaa@a" xr:uid="{0659BFA0-5BEB-434A-ADB4-48457CA0B890}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>